--- a/Labs/ScaleModelExcelTutorial/scaleModelExcelTemplate.xlsx
+++ b/Labs/ScaleModelExcelTutorial/scaleModelExcelTemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/austinhinkel/Documents/ThomasMoreUniversity/CourseDevelopment/IntroAstronomyDataSciCourseDev/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/austinhinkel/Documents/ThomasMoreUniversity/CourseDevelopment/NSP255_IntroAstronomyDataSci/Labs/ScaleModelExcelLab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63791B53-CDEB-9D43-B44C-E89C9814CC27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764999AD-BA17-DE49-B219-9C007702CCF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15700" xr2:uid="{7A667251-173C-C943-8115-4EEACB1446F1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Mercury's Orbit</t>
   </si>
@@ -82,15 +82,6 @@
   </si>
   <si>
     <t>Size of object in column C</t>
-  </si>
-  <si>
-    <t>Earth</t>
-  </si>
-  <si>
-    <t>down to the size of a….</t>
-  </si>
-  <si>
-    <t>ping pong ball</t>
   </si>
   <si>
     <t>Unit of measurement in column D</t>
@@ -181,6 +172,21 @@
   </si>
   <si>
     <t>Scale Factor</t>
+  </si>
+  <si>
+    <t>The Sun</t>
+  </si>
+  <si>
+    <t>Our Hallway</t>
+  </si>
+  <si>
+    <t>down to the size of…</t>
+  </si>
+  <si>
+    <t>a ping pong ball</t>
+  </si>
+  <si>
+    <t>cm</t>
   </si>
 </sst>
 </file>
@@ -367,22 +373,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -399,6 +399,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,13 +725,13 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.5" bestFit="1" customWidth="1"/>
@@ -732,212 +741,220 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1">
-      <c r="A3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="8"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:8" ht="17" thickBot="1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="17" thickBot="1"/>
     <row r="10" spans="1:8">
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>25</v>
+      <c r="F10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="15">
         <v>12742000</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="15">
         <v>1390000000</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="7"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="15">
         <v>57900000000</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="15">
         <v>108000000000</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="15">
         <v>150000000000</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="15">
         <v>228000000000</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="7"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="4:8">
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="15">
         <v>778000000000</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="7"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="4:8">
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="15">
         <v>1430000000000</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="7"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="4:8">
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="15">
         <v>2870000000000</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="7"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="4:8">
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="15">
         <v>4500000000000</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="7"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="4:8">
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="15">
         <v>4.01E+16</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="7"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="4:8" ht="17" thickBot="1">
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="16">
         <v>9.46E+20</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="11"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
